--- a/XLS_files/walmart_chart.xlsx
+++ b/XLS_files/walmart_chart.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CAF0A7E7-AB1D-4B9D-B510-A4456D7872C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C508B8DD-3887-45CD-9799-0DEFAA7B4C00}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{CAF0A7E7-AB1D-4B9D-B510-A4456D7872C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77C48A57-EBE8-4885-91C9-8871CF1494BE}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1800" windowWidth="22635" windowHeight="13365" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15735" yWindow="750" windowWidth="22635" windowHeight="13365" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Chart 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart 5" sheetId="5" r:id="rId3"/>
     <sheet name="Chart 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Chart 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Chart 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Chart 7" sheetId="7" r:id="rId7"/>
-    <sheet name="Chart 9" sheetId="9" r:id="rId8"/>
-    <sheet name="Chart 10" sheetId="11" r:id="rId9"/>
-    <sheet name="Chart 11" sheetId="10" r:id="rId10"/>
-    <sheet name="Chart 12" sheetId="12" r:id="rId11"/>
-    <sheet name="Walmart_Links" sheetId="13" r:id="rId12"/>
+    <sheet name="Chart 6" sheetId="6" r:id="rId5"/>
+    <sheet name="Chart 7" sheetId="7" r:id="rId6"/>
+    <sheet name="Chart 9" sheetId="9" r:id="rId7"/>
+    <sheet name="Chart 10" sheetId="11" r:id="rId8"/>
+    <sheet name="Chart 11" sheetId="10" r:id="rId9"/>
+    <sheet name="Chart 12" sheetId="12" r:id="rId10"/>
+    <sheet name="Chart 13" sheetId="14" r:id="rId11"/>
+    <sheet name="Chart 14" sheetId="16" r:id="rId12"/>
+    <sheet name="Walmart_Links" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
-  <si>
-    <t>Walmart's net sales worldwide from 2006 to 2019 (in billion U.S. dollars)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>US$ Bn</t>
   </si>
@@ -49,12 +48,6 @@
   </si>
   <si>
     <t>Sam's Club</t>
-  </si>
-  <si>
-    <t>Total revenue of Walmart worldwide from 2012 to 2019 (in billion U.S. dollars)</t>
-  </si>
-  <si>
-    <t>Revenue in US$ Bn</t>
   </si>
   <si>
     <t>Growth in Walmart's net sales worldwide from 2006 to 2019</t>
@@ -175,6 +168,162 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Tennesse</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Walmart Stores by State (2007)</t>
+  </si>
+  <si>
+    <t>Walmart Stores by State (2020)</t>
+  </si>
+  <si>
+    <t>Iowa</t>
   </si>
 </sst>
 </file>
@@ -338,7 +487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart 1'!$B$2</c:f>
+              <c:f>'Chart 1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -359,7 +508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Chart 1'!$A$3:$A$16</c:f>
+              <c:f>'Chart 1'!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -410,7 +559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart 1'!$B$3:$B$16</c:f>
+              <c:f>'Chart 1'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -676,649 +825,6 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 11'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walmart U.S. segment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Chart 11'!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart 11'!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3289</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3595</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3703</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4574</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4672</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4761</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89CA-45B1-AEB5-D79C0A1CF451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 11'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walmart International segment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Chart 11'!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart 11'!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2158</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3093</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4557</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5287</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5783</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6290</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6363</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6360</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89CA-45B1-AEB5-D79C0A1CF451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 11'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sam`s Club segment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Chart 11'!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart 11'!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>655</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-89CA-45B1-AEB5-D79C0A1CF451}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1160170464"/>
-        <c:axId val="1160171296"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1160170464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1160171296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1160171296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1160170464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -2203,667 +1709,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 3'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue in US$ Bn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Chart 3'!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart 3'!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>446.51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>468.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>476.29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>485.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>482.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>485.87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>500.34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>514.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-054D-4BDA-880A-B5AE5B75BF2D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1262718144"/>
-        <c:axId val="1262715232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1262718144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1262715232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1262715232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1262718144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart 4'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Growth in net sales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Chart 4'!$A$3:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart 4'!$B$3:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.9000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05EC-4E6A-BAE7-1CC8D64ACF7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1257423632"/>
-        <c:axId val="1257419056"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1257423632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1257419056"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1257419056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1257423632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -3428,7 +2273,356 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 4'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Growth in net sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 4'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 4'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05EC-4E6A-BAE7-1CC8D64ACF7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1257423632"/>
+        <c:axId val="1257419056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1257423632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1257419056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1257419056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1257423632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3777,7 +2971,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4154,7 +3348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4472,7 +3666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4808,6 +4002,649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 11'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walmart U.S. segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 11'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 11'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89CA-45B1-AEB5-D79C0A1CF451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 11'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walmart International segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 11'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 11'!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89CA-45B1-AEB5-D79C0A1CF451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart 11'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sam`s Club segment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart 11'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart 11'!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-89CA-45B1-AEB5-D79C0A1CF451}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1160170464"/>
+        <c:axId val="1160171296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1160170464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160171296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1160171296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160170464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4849,46 +4686,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6254,7 +6051,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6757,8 +6554,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6962,22 +6759,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7082,8 +6880,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7215,19 +7013,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7260,8 +7059,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7369,6 +7168,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7379,6 +7183,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7410,6 +7219,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7763,7 +7575,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8279,8 +8091,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8307,8 +8119,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8409,7 +8221,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8441,10 +8253,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8765,6 +8577,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8784,8 +8607,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8893,11 +8716,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8908,11 +8726,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8944,9 +8757,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9281,522 +9091,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10828,13 +10122,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10864,47 +10158,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10990,15 +10243,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11006,7 +10259,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11074,47 +10327,6 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -11150,7 +10362,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11191,7 +10403,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11232,7 +10444,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11253,6 +10465,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11536,10 +10789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11549,126 +10802,121 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2">
+        <v>308.95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B3">
-        <v>308.95</v>
+        <v>344.76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B4">
-        <v>344.76</v>
+        <v>373.82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B5">
-        <v>373.82</v>
+        <v>401.09</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B6">
-        <v>401.09</v>
+        <v>404.74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B7">
-        <v>404.74</v>
+        <v>418.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B8">
-        <v>418.5</v>
+        <v>443.42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B9">
-        <v>443.42</v>
+        <v>465.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10">
-        <v>465.6</v>
+        <v>473.08</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B11">
-        <v>473.08</v>
+        <v>482.23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B12">
-        <v>482.23</v>
+        <v>478.61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B13">
-        <v>478.61</v>
+        <v>485.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B14">
-        <v>485.87</v>
+        <v>500.34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B15">
-        <v>500.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2019</v>
-      </c>
-      <c r="B16">
         <v>514.41</v>
       </c>
     </row>
@@ -11679,251 +10927,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3289</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2158</v>
-      </c>
-      <c r="D2">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3488</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2733</v>
-      </c>
-      <c r="D3">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3595</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3093</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3703</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3595</v>
-      </c>
-      <c r="D5">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3755</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4099</v>
-      </c>
-      <c r="D6">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3804</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4557</v>
-      </c>
-      <c r="D7">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3868</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5287</v>
-      </c>
-      <c r="D8">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4005</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5783</v>
-      </c>
-      <c r="D9">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4203</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6107</v>
-      </c>
-      <c r="D10">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4516</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6290</v>
-      </c>
-      <c r="D11">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4574</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6299</v>
-      </c>
-      <c r="D12">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4672</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6363</v>
-      </c>
-      <c r="D13">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4761</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6360</v>
-      </c>
-      <c r="D14">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4769</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5993</v>
-      </c>
-      <c r="D15">
-        <v>599</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>436</v>
@@ -11931,7 +10956,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>92</v>
@@ -11939,7 +10964,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>411</v>
@@ -11947,7 +10972,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>811</v>
@@ -11955,7 +10980,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>371</v>
@@ -11963,7 +10988,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>443</v>
@@ -11971,7 +10996,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -11979,7 +11004,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>332</v>
@@ -11987,7 +11012,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4">
         <v>2442</v>
@@ -11995,7 +11020,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4">
         <v>4756</v>
@@ -12003,7 +11028,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>633</v>
@@ -12016,7 +11041,847 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B88F95-5FB3-48D0-B618-1CCE3260A79B}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457A11AA-4F60-4D76-9392-174BBAF8803E}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -12031,67 +11896,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -12106,28 +11971,28 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12305,90 +12170,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.621</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>446.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B7" s="3">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2013</v>
       </c>
-      <c r="B4">
-        <v>468.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B8" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2014</v>
       </c>
-      <c r="B5">
-        <v>476.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B9" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2015</v>
       </c>
-      <c r="B6">
-        <v>485.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B10" s="3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2016</v>
       </c>
-      <c r="B7">
-        <v>482.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B11" s="3">
+        <v>0.623</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2017</v>
       </c>
-      <c r="B8">
-        <v>485.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B12" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2018</v>
       </c>
-      <c r="B9">
-        <v>500.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B13" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2019</v>
       </c>
-      <c r="B10">
-        <v>514.41</v>
+      <c r="B14" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -12402,7 +12377,148 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C18" sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12414,7 +12530,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -12424,315 +12540,112 @@
       <c r="A3">
         <v>2006</v>
       </c>
-      <c r="B3" s="2">
-        <v>9.8000000000000004E-2</v>
+      <c r="B3" s="1">
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.11600000000000001</v>
+      <c r="B4" s="1">
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5" s="2">
-        <v>8.4000000000000005E-2</v>
+      <c r="B5" s="1">
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
-      <c r="B6" s="2">
-        <v>7.2999999999999995E-2</v>
+      <c r="B6" s="1">
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
-      <c r="B7" s="2">
-        <v>8.9999999999999993E-3</v>
+      <c r="B7" s="1">
+        <v>0.249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
-      <c r="B8" s="2">
-        <v>3.4000000000000002E-2</v>
+      <c r="B8" s="1">
+        <v>0.248</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.06</v>
+      <c r="B9" s="1">
+        <v>0.245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.05</v>
+      <c r="B10" s="1">
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.6E-2</v>
+      <c r="B11" s="1">
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.9E-2</v>
+      <c r="B12" s="1">
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13" s="2">
-        <v>-7.0000000000000001E-3</v>
+      <c r="B13" s="1">
+        <v>0.246</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B14" s="2">
-        <v>6.0000000000000001E-3</v>
+      <c r="B14" s="1">
+        <v>0.249</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.03</v>
+      <c r="B15" s="1">
+        <v>0.247</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16" s="2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.621</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.623</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.11</v>
+      <c r="B16" s="1">
+        <v>0.245</v>
       </c>
     </row>
   </sheetData>
@@ -12742,8 +12655,367 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+      <c r="B3">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="4">
+        <v>11766</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -12751,487 +13023,211 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3289</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2158</v>
+      </c>
+      <c r="D2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3488</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2733</v>
+      </c>
+      <c r="D3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3595</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3093</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3703</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3595</v>
+      </c>
+      <c r="D5">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3755</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4099</v>
+      </c>
+      <c r="D6">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3804</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4557</v>
+      </c>
+      <c r="D7">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3868</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5287</v>
+      </c>
+      <c r="D8">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4005</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5783</v>
+      </c>
+      <c r="D9">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4203</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6107</v>
+      </c>
+      <c r="D10">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4516</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6290</v>
+      </c>
+      <c r="D11">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4574</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6299</v>
+      </c>
+      <c r="D12">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4672</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6363</v>
+      </c>
+      <c r="D13">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4761</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6360</v>
+      </c>
+      <c r="D14">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.245</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2009</v>
-      </c>
-      <c r="B3">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2010</v>
-      </c>
-      <c r="B4">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2011</v>
-      </c>
-      <c r="B5">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2012</v>
-      </c>
-      <c r="B6">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2014</v>
-      </c>
-      <c r="B8">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2015</v>
-      </c>
-      <c r="B9">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2016</v>
-      </c>
-      <c r="B10">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="4">
-        <v>7288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="4">
-        <v>8099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="4">
-        <v>9766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="4">
-        <v>10408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="4">
-        <v>10942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="4">
-        <v>11453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="4">
-        <v>11528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="4">
-        <v>11695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="4">
-        <v>11718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="4">
-        <v>11766</v>
+      <c r="B15" s="4">
+        <v>4769</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5993</v>
+      </c>
+      <c r="D15">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/XLS_files/walmart_chart.xlsx
+++ b/XLS_files/walmart_chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{CAF0A7E7-AB1D-4B9D-B510-A4456D7872C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77C48A57-EBE8-4885-91C9-8871CF1494BE}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{CAF0A7E7-AB1D-4B9D-B510-A4456D7872C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{289A2766-A398-4B81-AD40-A345451E163A}"/>
   <bookViews>
-    <workbookView xWindow="15735" yWindow="750" windowWidth="22635" windowHeight="13365" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="1560" windowWidth="22635" windowHeight="13365" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>US$ Bn</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Iowa</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>No. of Stores</t>
   </si>
 </sst>
 </file>
@@ -10930,8 +10936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10942,6 +10948,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -11043,10 +11052,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B88F95-5FB3-48D0-B618-1CCE3260A79B}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11058,111 +11067,111 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>329</v>
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>191</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>87</v>
@@ -11170,119 +11179,119 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>45</v>
@@ -11290,55 +11299,55 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>29</v>
@@ -11346,23 +11355,23 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>26</v>
@@ -11370,31 +11379,31 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>12</v>
@@ -11402,23 +11411,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -11426,15 +11435,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -11442,17 +11451,25 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>92</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>4</v>
       </c>
     </row>
@@ -11463,10 +11480,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457A11AA-4F60-4D76-9392-174BBAF8803E}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11478,39 +11495,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>392</v>
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>142</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>139</v>
@@ -11518,143 +11535,143 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>84</v>
@@ -11662,23 +11679,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>58</v>
@@ -11686,111 +11703,111 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>19</v>
@@ -11798,81 +11815,89 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>92</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>3</v>
       </c>
     </row>
@@ -12658,8 +12683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12895,9 +12920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12907,6 +12930,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -13018,12 +13044,15 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D15" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
